--- a/Compendio de Facturas.xlsx
+++ b/Compendio de Facturas.xlsx
@@ -4023,8 +4023,8 @@
   <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H549" sqref="H549"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Compendio de Facturas.xlsx
+++ b/Compendio de Facturas.xlsx
@@ -4023,8 +4023,8 @@
   <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Compendio de Facturas.xlsx
+++ b/Compendio de Facturas.xlsx
@@ -4023,8 +4023,8 @@
   <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Compendio de Facturas.xlsx
+++ b/Compendio de Facturas.xlsx
@@ -4023,8 +4023,8 @@
   <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
+      <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A600" sqref="A600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Compendio de Facturas.xlsx
+++ b/Compendio de Facturas.xlsx
@@ -4023,8 +4023,8 @@
   <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A600" sqref="A600"/>
+      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Compendio de Facturas.xlsx
+++ b/Compendio de Facturas.xlsx
@@ -4023,8 +4023,8 @@
   <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H549" sqref="H549"/>
+      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
